--- a/PhoenixCI/Excel_Template/30770.xlsx
+++ b/PhoenixCI/Excel_Template/30770.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vs\PhoenixCI_Kj\PhoenixCI\Excel_Template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{59B63045-FD30-4A93-8541-152F6436BF27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B23B77D-02DA-426E-B45F-E390FACFD1F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="20400" windowHeight="8355"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="20400" windowHeight="8355" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="期貨日明細" sheetId="3" r:id="rId1"/>
@@ -580,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S1" activeCellId="1" sqref="R1:R65536 S1:S65536"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -910,7 +910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB3"/>
   <sheetViews>
-    <sheetView topLeftCell="N1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
       <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>

--- a/PhoenixCI/Excel_Template/30770.xlsx
+++ b/PhoenixCI/Excel_Template/30770.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KJSOFT\Desktop\update_template\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vs\PhoenixCI_Kj\PhoenixCI\Excel_Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B23B77D-02DA-426E-B45F-E390FACFD1F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{59B63045-FD30-4A93-8541-152F6436BF27}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="20400" windowHeight="8355" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="20400" windowHeight="8355"/>
   </bookViews>
   <sheets>
     <sheet name="期貨日明細" sheetId="3" r:id="rId1"/>
@@ -580,8 +580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB3"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S1" activeCellId="1" sqref="R1:R65536 S1:S65536"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -910,7 +910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+    <sheetView topLeftCell="N1" workbookViewId="0">
       <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
